--- a/docs/checklist_reminder.xlsx
+++ b/docs/checklist_reminder.xlsx
@@ -11,19 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$21</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Вид тестирования</t>
-  </si>
-  <si>
     <t>Действие</t>
   </si>
   <si>
@@ -31,16 +31,99 @@
   </si>
   <si>
     <t>Комментарии</t>
+  </si>
+  <si>
+    <t>закрытие при нажатии на крестик</t>
+  </si>
+  <si>
+    <t>разворачивание на весь экран</t>
+  </si>
+  <si>
+    <t>сворачивание приложения</t>
+  </si>
+  <si>
+    <t>запуск приложения</t>
+  </si>
+  <si>
+    <t>отображение текста в set_button</t>
+  </si>
+  <si>
+    <t>отображение текста в stop_button</t>
+  </si>
+  <si>
+    <t>срабатывание функции set() при нажатии на кнопку "Тыкни сюда"</t>
+  </si>
+  <si>
+    <t>срабатывание функции stop_music() при нажатии на кнопку "Завершить музыку"</t>
+  </si>
+  <si>
+    <t>отображение окна с просьбой ввести время</t>
+  </si>
+  <si>
+    <t>отображение ошибки "Такого времени не существует" при попытки ввести время вне диапозона</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>отображение исключения Exception</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>при удачном вводе времени отображение окна с просьбой "Что надо сделать?"</t>
+  </si>
+  <si>
+    <t>ввод с клавиатуры</t>
+  </si>
+  <si>
+    <t>ввод времени с клавиатуры</t>
+  </si>
+  <si>
+    <t>отображение текста "Нажми на кнопку ниже, чтобы выбрать время напоминания" в метке label</t>
+  </si>
+  <si>
+    <t>отображение введенного напоминания в метке label</t>
+  </si>
+  <si>
+    <t>запуск музыки при срабатывании напоминания</t>
+  </si>
+  <si>
+    <t>отображение текста "Выбери новое напоминание" в метке после остановки музыки</t>
+  </si>
+  <si>
+    <t>отображение текста "Не забудь 'смайлик'" в метке после создания напоминания</t>
+  </si>
+  <si>
+    <t>зацикленность музыки</t>
+  </si>
+  <si>
+    <t>запустилось ли приложение заново</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,19 +151,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,37 +494,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="21.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="4" width="21.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
